--- a/Biplot/QPA_cosumers_iso_signature.xlsx
+++ b/Biplot/QPA_cosumers_iso_signature.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/LTER/Manuscript 2019 Stable Isotopes/SIA_Plots 2017-2019/Biplot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/45- Gutiérrez-F et al. Ecology/SIA_Plots/Biplot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{9A6817A5-BC58-4FF4-AD46-C6F9A3AF18A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1203CD2-61C1-4F0F-88F4-6556DF907D08}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{9A6817A5-BC58-4FF4-AD46-C6F9A3AF18A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EF5F12B-F357-4F53-8625-66D3F1E67915}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{7EDBA850-C453-4A51-B25A-72C217F3ADC7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{7EDBA850-C453-4A51-B25A-72C217F3ADC7}"/>
   </bookViews>
   <sheets>
     <sheet name="QPA_Feb17" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>M. crenulatum</t>
   </si>
   <si>
-    <t>A. evermani</t>
-  </si>
-  <si>
     <t>L. regnyi</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>sd_N</t>
+  </si>
+  <si>
+    <t>A. evermanni</t>
   </si>
 </sst>
 </file>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA9A20B-A85E-4135-972D-553D482490A2}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,16 +484,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="32" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G32" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H32">
         <v>10</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G33" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H33">
         <v>10</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="34" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G34" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H34">
         <v>10</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="35" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G35" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H35">
         <v>10</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="36" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H36">
         <v>11</v>
@@ -1239,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907787B0-4773-48BB-8EB3-BE6C4440572B}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1257,16 +1257,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="35" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G35" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H35">
         <v>10</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="36" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G36" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H36">
         <v>10</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="37" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G37" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H37">
         <v>10</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="38" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G38" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H38">
         <v>10</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="39" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G39" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H39">
         <v>10</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="40" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G40" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H40">
         <v>10</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="41" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G41" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H41">
         <v>10</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="42" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G42" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H42">
         <v>10</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="43" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G43" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H43" s="2">
         <v>11</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="44" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G44" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H44" s="2">
         <v>11</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="45" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G45" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H45" s="2">
         <v>11</v>
@@ -2143,7 +2143,7 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="G33" sqref="G33:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2160,16 +2160,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G33" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H33">
         <v>10</v>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="34" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G34" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H34">
         <v>10</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="35" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G35" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H35">
         <v>10</v>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="36" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G36" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H36">
         <v>10</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="37" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G37" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H37">
         <v>10</v>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="38" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G38" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H38">
         <v>10</v>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="39" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G39" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H39">
         <v>10</v>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="40" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G40" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H40">
         <v>10</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="41" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H41" s="2">
         <v>11</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="42" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G42" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H42" s="2">
         <v>11</v>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="43" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G43" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H43" s="2">
         <v>11</v>
@@ -3008,7 +3008,7 @@
     </row>
     <row r="44" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G44" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H44" s="2">
         <v>11</v>
@@ -3029,8 +3029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9F4D0-2EDE-48D2-A64E-69664D9712F0}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3047,16 +3047,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="34" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G34" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H34">
         <v>10</v>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="35" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G35" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H35">
         <v>10</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="36" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G36" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H36">
         <v>10</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="37" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G37" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H37" s="2">
         <v>11</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="38" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G38" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H38" s="2">
         <v>11</v>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="39" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G39" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H39" s="2">
         <v>11</v>
